--- a/data/financial_statements/sofp/WBA.xlsx
+++ b/data/financial_statements/sofp/WBA.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -77,6 +197,9 @@
   </si>
   <si>
     <t>Long Term Tax Liability (Deferred)</t>
+  </si>
+  <si>
+    <t>Minority Interests</t>
   </si>
   <si>
     <t>Non-current Liabilities (Other)</t>
@@ -128,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,132 +610,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>4232000000</v>
@@ -742,8 +859,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>4853000000</v>
@@ -867,8 +984,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>9322000000</v>
@@ -992,8 +1109,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1115000000</v>
@@ -1117,8 +1234,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>19523000000</v>
@@ -1242,8 +1359,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>11450000000</v>
@@ -1367,8 +1484,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>4426000000</v>
@@ -1477,8 +1594,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>33194000000</v>
@@ -1602,8 +1719,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>3042000000</v>
@@ -1727,8 +1844,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>73352000000</v>
@@ -1852,8 +1969,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>92875000000</v>
@@ -1977,8 +2094,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>3938000000</v>
@@ -2102,8 +2219,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>12184000000</v>
@@ -2227,8 +2344,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>9534000000</v>
@@ -2352,8 +2469,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C16">
         <v>3382000000</v>
@@ -2393,8 +2510,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>109000000</v>
@@ -2518,8 +2635,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C18">
         <v>7862000000</v>
@@ -2556,8 +2673,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>28036000000</v>
@@ -2681,8 +2798,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>7789000000</v>
@@ -2806,8 +2923,8 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1319000000</v>
@@ -2931,1043 +3048,965 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>9636000000</v>
+        <v>157000000</v>
       </c>
       <c r="C22">
-        <v>4602000000</v>
+        <v>1042000000</v>
       </c>
       <c r="D22">
-        <v>4512000000</v>
+        <v>775000000</v>
       </c>
       <c r="E22">
-        <v>4071000000</v>
+        <v>812000000</v>
       </c>
       <c r="F22">
-        <v>6209000000</v>
+        <v>2787000000</v>
       </c>
       <c r="G22">
-        <v>3732000000</v>
+        <v>319000000</v>
       </c>
       <c r="H22">
-        <v>3720000000</v>
+        <v>310000000</v>
       </c>
       <c r="I22">
-        <v>3683000000</v>
+        <v>309000000</v>
       </c>
       <c r="J22">
-        <v>3809000000</v>
-      </c>
-      <c r="K22">
-        <v>3222000000</v>
-      </c>
-      <c r="L22">
-        <v>2882000000</v>
-      </c>
-      <c r="M22">
-        <v>2786000000</v>
-      </c>
-      <c r="N22">
-        <v>2861000000</v>
-      </c>
-      <c r="O22">
-        <v>4795000000</v>
-      </c>
-      <c r="P22">
-        <v>4768000000</v>
-      </c>
-      <c r="Q22">
-        <v>5053000000</v>
-      </c>
-      <c r="R22">
-        <v>5140000000</v>
-      </c>
-      <c r="S22">
-        <v>5522000000</v>
-      </c>
-      <c r="T22">
-        <v>5771000000</v>
-      </c>
-      <c r="U22">
-        <v>5601000000</v>
-      </c>
-      <c r="V22">
-        <v>4289000000</v>
-      </c>
-      <c r="W22">
-        <v>4223000000</v>
-      </c>
-      <c r="X22">
-        <v>4201000000</v>
-      </c>
-      <c r="Y22">
-        <v>4309000000</v>
-      </c>
-      <c r="Z22">
-        <v>4198000000</v>
-      </c>
-      <c r="AA22">
-        <v>4045000000</v>
-      </c>
-      <c r="AB22">
-        <v>3999000000</v>
-      </c>
-      <c r="AC22">
-        <v>4114000000</v>
-      </c>
-      <c r="AD22">
-        <v>4122000000</v>
-      </c>
-      <c r="AE22">
-        <v>4072000000</v>
-      </c>
-      <c r="AF22">
-        <v>3971000000</v>
-      </c>
-      <c r="AG22">
-        <v>3951000000</v>
-      </c>
-      <c r="AH22">
-        <v>3081000000</v>
-      </c>
-      <c r="AI22">
-        <v>2942000000</v>
-      </c>
-      <c r="AJ22">
-        <v>2740000000</v>
-      </c>
-      <c r="AK22">
-        <v>2382000000</v>
-      </c>
-      <c r="AL22">
-        <v>2325000000</v>
-      </c>
-      <c r="AM22">
-        <v>2067000000</v>
-      </c>
-      <c r="AN22">
-        <v>2093000000</v>
-      </c>
-      <c r="AO22">
-        <v>1991000000</v>
+        <v>178000000</v>
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>40258000000</v>
+        <v>9479000000</v>
       </c>
       <c r="C23">
-        <v>38176000000</v>
+        <v>3560000000</v>
       </c>
       <c r="D23">
-        <v>38310000000</v>
+        <v>3737000000</v>
       </c>
       <c r="E23">
-        <v>39117000000</v>
+        <v>3259000000</v>
       </c>
       <c r="F23">
-        <v>41481000000</v>
+        <v>3422000000</v>
       </c>
       <c r="G23">
-        <v>35410000000</v>
+        <v>3413000000</v>
       </c>
       <c r="H23">
-        <v>34849000000</v>
+        <v>3410000000</v>
       </c>
       <c r="I23">
-        <v>38047000000</v>
+        <v>3374000000</v>
       </c>
       <c r="J23">
-        <v>38225000000</v>
+        <v>3631000000</v>
       </c>
       <c r="K23">
-        <v>38969000000</v>
+        <v>3222000000</v>
       </c>
       <c r="L23">
-        <v>38474000000</v>
+        <v>2882000000</v>
       </c>
       <c r="M23">
-        <v>37007000000</v>
+        <v>2786000000</v>
       </c>
       <c r="N23">
-        <v>37001000000</v>
+        <v>2861000000</v>
       </c>
       <c r="O23">
-        <v>17678000000</v>
+        <v>4795000000</v>
       </c>
       <c r="P23">
-        <v>18755000000</v>
+        <v>4768000000</v>
       </c>
       <c r="Q23">
-        <v>19720000000</v>
+        <v>5053000000</v>
       </c>
       <c r="R23">
-        <v>18579000000</v>
+        <v>5140000000</v>
       </c>
       <c r="S23">
-        <v>19768000000</v>
+        <v>5522000000</v>
       </c>
       <c r="T23">
-        <v>20200000000</v>
+        <v>5771000000</v>
       </c>
       <c r="U23">
-        <v>20079000000</v>
+        <v>5601000000</v>
       </c>
       <c r="V23">
-        <v>19345000000</v>
+        <v>4289000000</v>
       </c>
       <c r="W23">
-        <v>19188000000</v>
+        <v>4223000000</v>
       </c>
       <c r="X23">
-        <v>20976000000</v>
+        <v>4201000000</v>
       </c>
       <c r="Y23">
-        <v>24406000000</v>
+        <v>4309000000</v>
       </c>
       <c r="Z23">
-        <v>24491000000</v>
+        <v>4198000000</v>
       </c>
       <c r="AA23">
-        <v>25394000000</v>
+        <v>4045000000</v>
       </c>
       <c r="AB23">
-        <v>20208000000</v>
+        <v>3999000000</v>
       </c>
       <c r="AC23">
-        <v>20195000000</v>
+        <v>4114000000</v>
       </c>
       <c r="AD23">
-        <v>20629000000</v>
+        <v>4122000000</v>
       </c>
       <c r="AE23">
-        <v>20925000000</v>
+        <v>4072000000</v>
       </c>
       <c r="AF23">
-        <v>22558000000</v>
+        <v>3971000000</v>
       </c>
       <c r="AG23">
-        <v>23641000000</v>
+        <v>3951000000</v>
       </c>
       <c r="AH23">
-        <v>17968000000</v>
+        <v>3081000000</v>
       </c>
       <c r="AI23">
-        <v>7738000000</v>
+        <v>2942000000</v>
       </c>
       <c r="AJ23">
-        <v>7497000000</v>
+        <v>2740000000</v>
       </c>
       <c r="AK23">
-        <v>7749000000</v>
+        <v>2382000000</v>
       </c>
       <c r="AL23">
-        <v>7604000000</v>
+        <v>2325000000</v>
       </c>
       <c r="AM23">
-        <v>7144000000</v>
+        <v>2067000000</v>
       </c>
       <c r="AN23">
-        <v>7171000000</v>
+        <v>2093000000</v>
       </c>
       <c r="AO23">
-        <v>7566000000</v>
+        <v>1991000000</v>
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>68293000000</v>
+        <v>40258000000</v>
       </c>
       <c r="C24">
-        <v>60759000000</v>
+        <v>38176000000</v>
       </c>
       <c r="D24">
-        <v>62377000000</v>
+        <v>38310000000</v>
       </c>
       <c r="E24">
-        <v>61816000000</v>
+        <v>39117000000</v>
       </c>
       <c r="F24">
-        <v>65928000000</v>
+        <v>41481000000</v>
       </c>
       <c r="G24">
-        <v>57464000000</v>
+        <v>35410000000</v>
       </c>
       <c r="H24">
-        <v>69324000000</v>
+        <v>34849000000</v>
       </c>
       <c r="I24">
-        <v>69295000000</v>
+        <v>38047000000</v>
       </c>
       <c r="J24">
-        <v>68604000000</v>
+        <v>38225000000</v>
       </c>
       <c r="K24">
-        <v>66038000000</v>
+        <v>38969000000</v>
       </c>
       <c r="L24">
-        <v>65121000000</v>
+        <v>38474000000</v>
       </c>
       <c r="M24">
-        <v>65669000000</v>
+        <v>37007000000</v>
       </c>
       <c r="N24">
-        <v>66495000000</v>
+        <v>37001000000</v>
       </c>
       <c r="O24">
-        <v>43446000000</v>
+        <v>17678000000</v>
       </c>
       <c r="P24">
-        <v>43815000000</v>
+        <v>18755000000</v>
       </c>
       <c r="Q24">
-        <v>45021000000</v>
+        <v>19720000000</v>
       </c>
       <c r="R24">
-        <v>43678000000</v>
+        <v>18579000000</v>
       </c>
       <c r="S24">
-        <v>41435000000</v>
+        <v>19768000000</v>
       </c>
       <c r="T24">
-        <v>41682000000</v>
+        <v>20200000000</v>
       </c>
       <c r="U24">
-        <v>42638000000</v>
+        <v>20079000000</v>
       </c>
       <c r="V24">
-        <v>39862000000</v>
+        <v>19345000000</v>
       </c>
       <c r="W24">
-        <v>37735000000</v>
+        <v>19188000000</v>
       </c>
       <c r="X24">
-        <v>42689000000</v>
+        <v>20976000000</v>
       </c>
       <c r="Y24">
-        <v>42084000000</v>
+        <v>24406000000</v>
       </c>
       <c r="Z24">
-        <v>42220000000</v>
+        <v>24491000000</v>
       </c>
       <c r="AA24">
-        <v>42407000000</v>
+        <v>25394000000</v>
       </c>
       <c r="AB24">
-        <v>36019000000</v>
+        <v>20208000000</v>
       </c>
       <c r="AC24">
-        <v>36467000000</v>
+        <v>20195000000</v>
       </c>
       <c r="AD24">
-        <v>37503000000</v>
+        <v>20629000000</v>
       </c>
       <c r="AE24">
-        <v>37482000000</v>
+        <v>20925000000</v>
       </c>
       <c r="AF24">
-        <v>38715000000</v>
+        <v>22558000000</v>
       </c>
       <c r="AG24">
-        <v>40331000000</v>
+        <v>23641000000</v>
       </c>
       <c r="AH24">
-        <v>27845000000</v>
+        <v>17968000000</v>
       </c>
       <c r="AI24">
-        <v>16633000000</v>
+        <v>7738000000</v>
       </c>
       <c r="AJ24">
-        <v>15906000000</v>
+        <v>7497000000</v>
       </c>
       <c r="AK24">
-        <v>16248000000</v>
+        <v>7749000000</v>
       </c>
       <c r="AL24">
-        <v>16425000000</v>
+        <v>7604000000</v>
       </c>
       <c r="AM24">
-        <v>16027000000</v>
+        <v>7144000000</v>
       </c>
       <c r="AN24">
-        <v>16861000000</v>
+        <v>7171000000</v>
       </c>
       <c r="AO24">
-        <v>16591000000</v>
+        <v>7566000000</v>
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>68293000000</v>
       </c>
       <c r="C25">
-        <v>10950000000</v>
+        <v>60758000000</v>
       </c>
       <c r="D25">
-        <v>11029000000</v>
+        <v>62377000000</v>
       </c>
       <c r="E25">
-        <v>10973000000</v>
+        <v>61816000000</v>
       </c>
       <c r="F25">
-        <v>10966000000</v>
+        <v>65928000000</v>
       </c>
       <c r="G25">
-        <v>10988000000</v>
+        <v>57464000000</v>
       </c>
       <c r="H25">
-        <v>10971000000</v>
+        <v>69324000000</v>
       </c>
       <c r="I25">
-        <v>10916000000</v>
+        <v>69295000000</v>
       </c>
       <c r="J25">
-        <v>10876000000</v>
+        <v>68604000000</v>
       </c>
       <c r="K25">
-        <v>10761000000</v>
+        <v>66038000000</v>
       </c>
       <c r="L25">
-        <v>10726000000</v>
+        <v>65121000000</v>
       </c>
       <c r="M25">
-        <v>10689000000</v>
+        <v>65669000000</v>
       </c>
       <c r="N25">
-        <v>10648000000</v>
+        <v>66495000000</v>
       </c>
       <c r="O25">
-        <v>10639000000</v>
+        <v>43446000000</v>
       </c>
       <c r="P25">
-        <v>10605000000</v>
+        <v>43815000000</v>
       </c>
       <c r="Q25">
-        <v>10571000000</v>
+        <v>45021000000</v>
       </c>
       <c r="R25">
-        <v>10522000000</v>
+        <v>43678000000</v>
       </c>
       <c r="S25">
-        <v>10493000000</v>
+        <v>41435000000</v>
       </c>
       <c r="T25">
-        <v>10444000000</v>
+        <v>41682000000</v>
       </c>
       <c r="U25">
-        <v>10408000000</v>
+        <v>42638000000</v>
       </c>
       <c r="V25">
-        <v>10359000000</v>
+        <v>39862000000</v>
       </c>
       <c r="W25">
-        <v>10339000000</v>
+        <v>37735000000</v>
       </c>
       <c r="X25">
-        <v>10389000000</v>
+        <v>42689000000</v>
       </c>
       <c r="Y25">
-        <v>10162000000</v>
+        <v>42084000000</v>
       </c>
       <c r="Z25">
-        <v>10132000000</v>
+        <v>42220000000</v>
       </c>
       <c r="AA25">
-        <v>10111000000</v>
+        <v>42407000000</v>
       </c>
       <c r="AB25">
-        <v>10061000000</v>
+        <v>36019000000</v>
       </c>
       <c r="AC25">
-        <v>10041000000</v>
+        <v>36467000000</v>
       </c>
       <c r="AD25">
-        <v>9997000000</v>
+        <v>37503000000</v>
       </c>
       <c r="AE25">
-        <v>9953000000</v>
+        <v>37482000000</v>
       </c>
       <c r="AF25">
-        <v>9889000000</v>
+        <v>38715000000</v>
       </c>
       <c r="AG25">
-        <v>9838000000</v>
+        <v>40331000000</v>
       </c>
       <c r="AH25">
-        <v>1179000000</v>
+        <v>27845000000</v>
       </c>
       <c r="AI25">
-        <v>1172000000</v>
+        <v>16633000000</v>
       </c>
       <c r="AJ25">
-        <v>1128000000</v>
+        <v>15906000000</v>
       </c>
       <c r="AK25">
-        <v>1086000000</v>
+        <v>16248000000</v>
       </c>
       <c r="AL25">
-        <v>1053000000</v>
+        <v>16425000000</v>
       </c>
       <c r="AM25">
-        <v>1074000000</v>
+        <v>16027000000</v>
       </c>
       <c r="AN25">
-        <v>1029000000</v>
+        <v>16861000000</v>
       </c>
       <c r="AO25">
-        <v>979000000</v>
+        <v>16591000000</v>
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>10477000000</v>
       </c>
       <c r="C26">
-        <v>12000000</v>
+        <v>10950000000</v>
       </c>
       <c r="D26">
-        <v>12000000</v>
+        <v>11029000000</v>
       </c>
       <c r="E26">
-        <v>12000000</v>
+        <v>10973000000</v>
       </c>
       <c r="F26">
-        <v>12000000</v>
+        <v>10966000000</v>
       </c>
       <c r="G26">
-        <v>12000000</v>
+        <v>10988000000</v>
       </c>
       <c r="H26">
-        <v>12000000</v>
+        <v>10971000000</v>
       </c>
       <c r="I26">
-        <v>12000000</v>
+        <v>10916000000</v>
       </c>
       <c r="J26">
-        <v>12000000</v>
+        <v>10876000000</v>
       </c>
       <c r="K26">
-        <v>12000000</v>
+        <v>10761000000</v>
       </c>
       <c r="L26">
-        <v>12000000</v>
+        <v>10726000000</v>
       </c>
       <c r="M26">
-        <v>12000000</v>
+        <v>10689000000</v>
       </c>
       <c r="N26">
-        <v>12000000</v>
+        <v>10648000000</v>
       </c>
       <c r="O26">
-        <v>12000000</v>
+        <v>10639000000</v>
       </c>
       <c r="P26">
-        <v>12000000</v>
+        <v>10605000000</v>
       </c>
       <c r="Q26">
-        <v>12000000</v>
+        <v>10571000000</v>
       </c>
       <c r="R26">
-        <v>12000000</v>
+        <v>10522000000</v>
       </c>
       <c r="S26">
-        <v>12000000</v>
+        <v>10493000000</v>
       </c>
       <c r="T26">
-        <v>12000000</v>
+        <v>10444000000</v>
       </c>
       <c r="U26">
-        <v>12000000</v>
+        <v>10408000000</v>
       </c>
       <c r="V26">
-        <v>12000000</v>
+        <v>10359000000</v>
       </c>
       <c r="W26">
-        <v>12000000</v>
+        <v>10339000000</v>
       </c>
       <c r="X26">
-        <v>12000000</v>
+        <v>10389000000</v>
       </c>
       <c r="Y26">
-        <v>12000000</v>
+        <v>10162000000</v>
       </c>
       <c r="Z26">
-        <v>12000000</v>
+        <v>10132000000</v>
       </c>
       <c r="AA26">
-        <v>12000000</v>
+        <v>10111000000</v>
       </c>
       <c r="AB26">
-        <v>12000000</v>
+        <v>10061000000</v>
       </c>
       <c r="AC26">
-        <v>12000000</v>
+        <v>10041000000</v>
       </c>
       <c r="AD26">
-        <v>12000000</v>
+        <v>9997000000</v>
       </c>
       <c r="AE26">
-        <v>12000000</v>
+        <v>9953000000</v>
       </c>
       <c r="AF26">
-        <v>12000000</v>
+        <v>9889000000</v>
       </c>
       <c r="AG26">
-        <v>12000000</v>
+        <v>9838000000</v>
       </c>
       <c r="AH26">
-        <v>80000000</v>
+        <v>1179000000</v>
       </c>
       <c r="AI26">
-        <v>80000000</v>
+        <v>1172000000</v>
       </c>
       <c r="AJ26">
-        <v>80000000</v>
+        <v>1128000000</v>
       </c>
       <c r="AK26">
-        <v>80000000</v>
+        <v>1086000000</v>
       </c>
       <c r="AL26">
-        <v>80000000</v>
+        <v>1053000000</v>
       </c>
       <c r="AM26">
-        <v>80000000</v>
+        <v>1074000000</v>
       </c>
       <c r="AN26">
-        <v>80000000</v>
+        <v>1029000000</v>
       </c>
       <c r="AO26">
-        <v>80000000</v>
+        <v>979000000</v>
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27">
+        <v>12000000</v>
       </c>
       <c r="C27">
-        <v>37801000000</v>
+        <v>12000000</v>
       </c>
       <c r="D27">
-        <v>38632000000</v>
+        <v>12000000</v>
       </c>
       <c r="E27">
-        <v>38757000000</v>
+        <v>12000000</v>
       </c>
       <c r="F27">
-        <v>38286000000</v>
+        <v>12000000</v>
       </c>
       <c r="G27">
-        <v>35121000000</v>
+        <v>12000000</v>
       </c>
       <c r="H27">
-        <v>34908000000</v>
+        <v>12000000</v>
       </c>
       <c r="I27">
-        <v>34116000000</v>
+        <v>12000000</v>
       </c>
       <c r="J27">
-        <v>33495000000</v>
+        <v>12000000</v>
       </c>
       <c r="K27">
-        <v>34210000000</v>
+        <v>12000000</v>
       </c>
       <c r="L27">
-        <v>34244000000</v>
+        <v>12000000</v>
       </c>
       <c r="M27">
-        <v>36351000000</v>
+        <v>12000000</v>
       </c>
       <c r="N27">
-        <v>35810000000</v>
+        <v>12000000</v>
       </c>
       <c r="O27">
-        <v>35815000000</v>
+        <v>12000000</v>
       </c>
       <c r="P27">
-        <v>35547000000</v>
+        <v>12000000</v>
       </c>
       <c r="Q27">
-        <v>34928000000</v>
+        <v>12000000</v>
       </c>
       <c r="R27">
-        <v>34168000000</v>
+        <v>12000000</v>
       </c>
       <c r="S27">
-        <v>33551000000</v>
+        <v>12000000</v>
       </c>
       <c r="T27">
-        <v>32460000000</v>
+        <v>12000000</v>
       </c>
       <c r="U27">
-        <v>31513000000</v>
+        <v>12000000</v>
       </c>
       <c r="V27">
-        <v>30560000000</v>
+        <v>12000000</v>
       </c>
       <c r="W27">
-        <v>30137000000</v>
+        <v>12000000</v>
       </c>
       <c r="X27">
-        <v>29744000000</v>
+        <v>12000000</v>
       </c>
       <c r="Y27">
-        <v>28987000000</v>
+        <v>12000000</v>
       </c>
       <c r="Z27">
-        <v>28332000000</v>
+        <v>12000000</v>
       </c>
       <c r="AA27">
-        <v>27684000000</v>
+        <v>12000000</v>
       </c>
       <c r="AB27">
-        <v>27061000000</v>
+        <v>12000000</v>
       </c>
       <c r="AC27">
-        <v>26348000000</v>
+        <v>12000000</v>
       </c>
       <c r="AD27">
-        <v>25806000000</v>
+        <v>12000000</v>
       </c>
       <c r="AE27">
-        <v>25089000000</v>
+        <v>12000000</v>
       </c>
       <c r="AF27">
-        <v>25460000000</v>
+        <v>12000000</v>
       </c>
       <c r="AG27">
-        <v>24526000000</v>
+        <v>12000000</v>
       </c>
       <c r="AH27">
-        <v>22717000000</v>
+        <v>80000000</v>
       </c>
       <c r="AI27">
-        <v>22327000000</v>
+        <v>80000000</v>
       </c>
       <c r="AJ27">
-        <v>22790000000</v>
+        <v>80000000</v>
       </c>
       <c r="AK27">
-        <v>22370000000</v>
+        <v>80000000</v>
       </c>
       <c r="AL27">
-        <v>21918000000</v>
+        <v>80000000</v>
       </c>
       <c r="AM27">
-        <v>21523000000</v>
+        <v>80000000</v>
       </c>
       <c r="AN27">
-        <v>21166000000</v>
+        <v>80000000</v>
       </c>
       <c r="AO27">
-        <v>20804000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28">
+        <v>33664000000</v>
       </c>
       <c r="C28">
-        <v>20683000000</v>
+        <v>37801000000</v>
       </c>
       <c r="D28">
-        <v>20696000000</v>
+        <v>38632000000</v>
       </c>
       <c r="E28">
-        <v>20712000000</v>
+        <v>38757000000</v>
       </c>
       <c r="F28">
-        <v>20700000000</v>
+        <v>38286000000</v>
       </c>
       <c r="G28">
-        <v>20593000000</v>
+        <v>35121000000</v>
       </c>
       <c r="H28">
-        <v>20610000000</v>
+        <v>34908000000</v>
       </c>
       <c r="I28">
-        <v>20626000000</v>
+        <v>34116000000</v>
       </c>
       <c r="J28">
-        <v>20642000000</v>
+        <v>33495000000</v>
       </c>
       <c r="K28">
-        <v>20575000000</v>
+        <v>34210000000</v>
       </c>
       <c r="L28">
-        <v>20375000000</v>
+        <v>34244000000</v>
       </c>
       <c r="M28">
-        <v>19925000000</v>
+        <v>36351000000</v>
       </c>
       <c r="N28">
-        <v>19496000000</v>
+        <v>35810000000</v>
       </c>
       <c r="O28">
-        <v>19057000000</v>
+        <v>35815000000</v>
       </c>
       <c r="P28">
-        <v>18638000000</v>
+        <v>35547000000</v>
       </c>
       <c r="Q28">
-        <v>18036000000</v>
+        <v>34928000000</v>
       </c>
       <c r="R28">
-        <v>15862000000</v>
+        <v>34168000000</v>
       </c>
       <c r="S28">
-        <v>15047000000</v>
+        <v>33551000000</v>
       </c>
       <c r="T28">
-        <v>12388000000</v>
+        <v>32460000000</v>
       </c>
       <c r="U28">
-        <v>12415000000</v>
+        <v>31513000000</v>
       </c>
       <c r="V28">
-        <v>12459000000</v>
+        <v>30560000000</v>
       </c>
       <c r="W28">
-        <v>9971000000</v>
+        <v>30137000000</v>
       </c>
       <c r="X28">
-        <v>6242000000</v>
+        <v>29744000000</v>
       </c>
       <c r="Y28">
-        <v>5285000000</v>
+        <v>28987000000</v>
       </c>
       <c r="Z28">
-        <v>5341000000</v>
+        <v>28332000000</v>
       </c>
       <c r="AA28">
-        <v>4934000000</v>
+        <v>27684000000</v>
       </c>
       <c r="AB28">
-        <v>4975000000</v>
+        <v>27061000000</v>
       </c>
       <c r="AC28">
-        <v>5026000000</v>
+        <v>26348000000</v>
       </c>
       <c r="AD28">
-        <v>4446000000</v>
+        <v>25806000000</v>
       </c>
       <c r="AE28">
-        <v>3977000000</v>
+        <v>25089000000</v>
       </c>
       <c r="AF28">
-        <v>3654000000</v>
+        <v>25460000000</v>
       </c>
       <c r="AG28">
-        <v>3491000000</v>
+        <v>24526000000</v>
       </c>
       <c r="AH28">
-        <v>3558000000</v>
+        <v>22717000000</v>
       </c>
       <c r="AI28">
-        <v>3197000000</v>
+        <v>22327000000</v>
       </c>
       <c r="AJ28">
-        <v>2776000000</v>
+        <v>22790000000</v>
       </c>
       <c r="AK28">
-        <v>2869000000</v>
+        <v>22370000000</v>
       </c>
       <c r="AL28">
-        <v>3042000000</v>
+        <v>21918000000</v>
       </c>
       <c r="AM28">
-        <v>3114000000</v>
+        <v>21523000000</v>
       </c>
       <c r="AN28">
-        <v>3162000000</v>
+        <v>21166000000</v>
       </c>
       <c r="AO28">
-        <v>2912000000</v>
+        <v>20804000000</v>
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>20762000000</v>
+      </c>
+      <c r="C29">
+        <v>20683000000</v>
+      </c>
+      <c r="D29">
+        <v>20696000000</v>
+      </c>
+      <c r="E29">
+        <v>20712000000</v>
+      </c>
+      <c r="F29">
+        <v>20700000000</v>
+      </c>
+      <c r="G29">
+        <v>20593000000</v>
+      </c>
+      <c r="H29">
+        <v>20610000000</v>
+      </c>
+      <c r="I29">
+        <v>20626000000</v>
+      </c>
+      <c r="J29">
+        <v>20642000000</v>
+      </c>
+      <c r="K29">
+        <v>20575000000</v>
+      </c>
+      <c r="L29">
+        <v>20375000000</v>
+      </c>
+      <c r="M29">
+        <v>19925000000</v>
+      </c>
+      <c r="N29">
+        <v>19496000000</v>
+      </c>
+      <c r="O29">
+        <v>19057000000</v>
+      </c>
+      <c r="P29">
+        <v>18638000000</v>
+      </c>
+      <c r="Q29">
+        <v>18036000000</v>
+      </c>
+      <c r="R29">
+        <v>15862000000</v>
+      </c>
+      <c r="S29">
+        <v>15047000000</v>
+      </c>
+      <c r="T29">
+        <v>12388000000</v>
+      </c>
+      <c r="U29">
+        <v>12415000000</v>
+      </c>
+      <c r="V29">
+        <v>12459000000</v>
+      </c>
+      <c r="W29">
+        <v>9971000000</v>
+      </c>
+      <c r="X29">
+        <v>6242000000</v>
+      </c>
+      <c r="Y29">
+        <v>5285000000</v>
+      </c>
+      <c r="Z29">
+        <v>5341000000</v>
       </c>
       <c r="AA29">
-        <v>-1000000</v>
+        <v>4934000000</v>
       </c>
       <c r="AB29">
-        <v>-1000000</v>
+        <v>4975000000</v>
       </c>
       <c r="AC29">
-        <v>-1000000</v>
+        <v>5026000000</v>
       </c>
       <c r="AD29">
-        <v>-2000000</v>
+        <v>4446000000</v>
       </c>
       <c r="AE29">
-        <v>-2000000</v>
+        <v>3977000000</v>
       </c>
       <c r="AF29">
-        <v>-3000000</v>
+        <v>3654000000</v>
       </c>
       <c r="AG29">
-        <v>-3000000</v>
+        <v>3491000000</v>
       </c>
       <c r="AH29">
-        <v>-4000000</v>
+        <v>3558000000</v>
       </c>
       <c r="AI29">
-        <v>-5000000</v>
+        <v>3197000000</v>
       </c>
       <c r="AJ29">
-        <v>-7000000</v>
+        <v>2776000000</v>
       </c>
       <c r="AK29">
-        <v>-9000000</v>
+        <v>2869000000</v>
       </c>
       <c r="AL29">
-        <v>-10000000</v>
+        <v>3042000000</v>
       </c>
       <c r="AM29">
-        <v>-11000000</v>
+        <v>3114000000</v>
       </c>
       <c r="AN29">
-        <v>-12000000</v>
+        <v>3162000000</v>
       </c>
       <c r="AO29">
-        <v>-13000000</v>
+        <v>2912000000</v>
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>29366000000</v>
-      </c>
-      <c r="D30">
-        <v>30382000000</v>
-      </c>
-      <c r="E30">
-        <v>30868000000</v>
-      </c>
-      <c r="F30">
-        <v>30579000000</v>
-      </c>
-      <c r="G30">
-        <v>23821000000</v>
-      </c>
-      <c r="H30">
-        <v>22596000000</v>
-      </c>
-      <c r="I30">
-        <v>21626000000</v>
-      </c>
-      <c r="J30">
-        <v>20565000000</v>
-      </c>
-      <c r="K30">
-        <v>21135000000</v>
-      </c>
-      <c r="L30">
-        <v>21322000000</v>
-      </c>
-      <c r="M30">
-        <v>24335000000</v>
-      </c>
-      <c r="N30">
-        <v>24314000000</v>
-      </c>
-      <c r="O30">
-        <v>24153000000</v>
-      </c>
-      <c r="P30">
-        <v>24771000000</v>
-      </c>
-      <c r="Q30">
-        <v>25413000000</v>
-      </c>
-      <c r="R30">
-        <v>26263000000</v>
-      </c>
-      <c r="S30">
-        <v>26689000000</v>
-      </c>
-      <c r="T30">
-        <v>28470000000</v>
-      </c>
-      <c r="U30">
-        <v>28178000000</v>
-      </c>
-      <c r="V30">
-        <v>26756000000</v>
-      </c>
-      <c r="W30">
-        <v>28274000000</v>
-      </c>
-      <c r="X30">
-        <v>31484000000</v>
-      </c>
-      <c r="Y30">
-        <v>30421000000</v>
-      </c>
-      <c r="Z30">
-        <v>29692000000</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="AA30">
-        <v>30281000000</v>
+        <v>-1000000</v>
       </c>
       <c r="AB30">
-        <v>31314000000</v>
+        <v>-1000000</v>
       </c>
       <c r="AC30">
-        <v>29918000000</v>
+        <v>-1000000</v>
       </c>
       <c r="AD30">
-        <v>31154000000</v>
+        <v>-2000000</v>
       </c>
       <c r="AE30">
-        <v>31300000000</v>
+        <v>-2000000</v>
       </c>
       <c r="AF30">
-        <v>31929000000</v>
+        <v>-3000000</v>
       </c>
       <c r="AG30">
-        <v>31026000000</v>
+        <v>-3000000</v>
       </c>
       <c r="AH30">
-        <v>20767000000</v>
+        <v>-4000000</v>
       </c>
       <c r="AI30">
-        <v>20617000000</v>
+        <v>-5000000</v>
       </c>
       <c r="AJ30">
-        <v>21485000000</v>
+        <v>-7000000</v>
       </c>
       <c r="AK30">
-        <v>20833000000</v>
+        <v>-9000000</v>
       </c>
       <c r="AL30">
-        <v>20056000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AM30">
-        <v>19454000000</v>
+        <v>-11000000</v>
       </c>
       <c r="AN30">
-        <v>18980000000</v>
+        <v>-12000000</v>
       </c>
       <c r="AO30">
-        <v>18973000000</v>
+        <v>-13000000</v>
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>24582000000</v>
@@ -3979,37 +4018,37 @@
         <v>30382000000</v>
       </c>
       <c r="E31">
-        <v>30867000000</v>
+        <v>30868000000</v>
       </c>
       <c r="F31">
         <v>30579000000</v>
       </c>
       <c r="G31">
-        <v>23822000000</v>
+        <v>23821000000</v>
       </c>
       <c r="H31">
         <v>22596000000</v>
       </c>
       <c r="I31">
-        <v>21625000000</v>
+        <v>21626000000</v>
       </c>
       <c r="J31">
-        <v>20563000000</v>
+        <v>20565000000</v>
       </c>
       <c r="K31">
-        <v>21136000000</v>
+        <v>21135000000</v>
       </c>
       <c r="L31">
-        <v>21323000000</v>
+        <v>21322000000</v>
       </c>
       <c r="M31">
-        <v>24334000000</v>
+        <v>24335000000</v>
       </c>
       <c r="N31">
         <v>24314000000</v>
       </c>
       <c r="O31">
-        <v>24152000000</v>
+        <v>24153000000</v>
       </c>
       <c r="P31">
         <v>24771000000</v>
@@ -4091,624 +4130,752 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>92875000000</v>
+        <v>24582000000</v>
       </c>
       <c r="C32">
-        <v>90124000000</v>
+        <v>29366000000</v>
       </c>
       <c r="D32">
-        <v>92759000000</v>
+        <v>30382000000</v>
       </c>
       <c r="E32">
-        <v>92683000000</v>
+        <v>30867000000</v>
       </c>
       <c r="F32">
-        <v>96507000000</v>
+        <v>30579000000</v>
       </c>
       <c r="G32">
-        <v>81285000000</v>
+        <v>23822000000</v>
       </c>
       <c r="H32">
-        <v>91920000000</v>
+        <v>22596000000</v>
       </c>
       <c r="I32">
-        <v>90920000000</v>
+        <v>21625000000</v>
       </c>
       <c r="J32">
-        <v>89167000000</v>
+        <v>20563000000</v>
       </c>
       <c r="K32">
-        <v>87174000000</v>
+        <v>21136000000</v>
       </c>
       <c r="L32">
-        <v>86444000000</v>
+        <v>21323000000</v>
       </c>
       <c r="M32">
-        <v>90003000000</v>
+        <v>24334000000</v>
       </c>
       <c r="N32">
-        <v>90807000000</v>
+        <v>24314000000</v>
       </c>
       <c r="O32">
-        <v>67598000000</v>
+        <v>24152000000</v>
       </c>
       <c r="P32">
-        <v>68586000000</v>
+        <v>24771000000</v>
       </c>
       <c r="Q32">
-        <v>70434000000</v>
+        <v>25413000000</v>
       </c>
       <c r="R32">
-        <v>69941000000</v>
+        <v>26263000000</v>
       </c>
       <c r="S32">
-        <v>68124000000</v>
+        <v>26689000000</v>
       </c>
       <c r="T32">
-        <v>70152000000</v>
+        <v>28470000000</v>
       </c>
       <c r="U32">
-        <v>70816000000</v>
+        <v>28178000000</v>
       </c>
       <c r="V32">
-        <v>66618000000</v>
+        <v>26756000000</v>
       </c>
       <c r="W32">
-        <v>66009000000</v>
+        <v>28274000000</v>
       </c>
       <c r="X32">
-        <v>74173000000</v>
+        <v>31484000000</v>
       </c>
       <c r="Y32">
-        <v>72505000000</v>
+        <v>30421000000</v>
       </c>
       <c r="Z32">
-        <v>71912000000</v>
+        <v>29692000000</v>
       </c>
       <c r="AA32">
-        <v>72688000000</v>
+        <v>30281000000</v>
       </c>
       <c r="AB32">
-        <v>67333000000</v>
+        <v>31314000000</v>
       </c>
       <c r="AC32">
-        <v>66385000000</v>
+        <v>29918000000</v>
       </c>
       <c r="AD32">
-        <v>68657000000</v>
+        <v>31154000000</v>
       </c>
       <c r="AE32">
-        <v>68782000000</v>
+        <v>31300000000</v>
       </c>
       <c r="AF32">
-        <v>70644000000</v>
+        <v>31929000000</v>
       </c>
       <c r="AG32">
-        <v>71357000000</v>
+        <v>31026000000</v>
       </c>
       <c r="AH32">
-        <v>48612000000</v>
+        <v>20767000000</v>
       </c>
       <c r="AI32">
-        <v>37250000000</v>
+        <v>20617000000</v>
       </c>
       <c r="AJ32">
-        <v>37391000000</v>
+        <v>21485000000</v>
       </c>
       <c r="AK32">
-        <v>37081000000</v>
+        <v>20833000000</v>
       </c>
       <c r="AL32">
-        <v>36481000000</v>
+        <v>20056000000</v>
       </c>
       <c r="AM32">
-        <v>35481000000</v>
+        <v>19454000000</v>
       </c>
       <c r="AN32">
-        <v>35841000000</v>
+        <v>18980000000</v>
       </c>
       <c r="AO32">
-        <v>35564000000</v>
+        <v>18973000000</v>
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33">
+        <v>92875000000</v>
       </c>
       <c r="C33">
-        <v>864639500</v>
+        <v>90124000000</v>
       </c>
       <c r="D33">
-        <v>864256700</v>
+        <v>92759000000</v>
       </c>
       <c r="E33">
-        <v>863773000</v>
+        <v>92683000000</v>
       </c>
       <c r="F33">
-        <v>863842300</v>
+        <v>96507000000</v>
       </c>
       <c r="G33">
-        <v>865373700</v>
+        <v>81285000000</v>
       </c>
       <c r="H33">
-        <v>864882400</v>
+        <v>91920000000</v>
       </c>
       <c r="I33">
-        <v>864394400</v>
+        <v>90920000000</v>
       </c>
       <c r="J33">
-        <v>865604000</v>
+        <v>89167000000</v>
       </c>
       <c r="K33">
-        <v>865604000</v>
+        <v>87174000000</v>
       </c>
       <c r="L33">
-        <v>870179000</v>
+        <v>86444000000</v>
       </c>
       <c r="M33">
-        <v>880397200</v>
+        <v>90003000000</v>
       </c>
       <c r="N33">
-        <v>888090000</v>
+        <v>90807000000</v>
       </c>
       <c r="O33">
-        <v>895388000</v>
+        <v>67598000000</v>
       </c>
       <c r="P33">
-        <v>903143000</v>
+        <v>68586000000</v>
       </c>
       <c r="Q33">
-        <v>914176000</v>
+        <v>70434000000</v>
       </c>
       <c r="R33">
-        <v>943445000</v>
+        <v>69941000000</v>
       </c>
       <c r="S33">
-        <v>952133000</v>
+        <v>68124000000</v>
       </c>
       <c r="T33">
-        <v>992412000</v>
+        <v>70152000000</v>
       </c>
       <c r="U33">
-        <v>991665600</v>
+        <v>70816000000</v>
       </c>
       <c r="V33">
-        <v>990446000</v>
+        <v>66618000000</v>
       </c>
       <c r="W33">
-        <v>1023849000</v>
+        <v>66009000000</v>
       </c>
       <c r="X33">
-        <v>1070096000</v>
+        <v>74173000000</v>
       </c>
       <c r="Y33">
-        <v>1080695000</v>
+        <v>72505000000</v>
       </c>
       <c r="Z33">
-        <v>1079100000</v>
+        <v>71912000000</v>
       </c>
       <c r="AA33">
-        <v>1082987000</v>
+        <v>72688000000</v>
       </c>
       <c r="AB33">
-        <v>1081802000</v>
+        <v>67333000000</v>
       </c>
       <c r="AC33">
-        <v>1079660000</v>
+        <v>66385000000</v>
       </c>
       <c r="AD33">
-        <v>1085656000</v>
+        <v>68657000000</v>
       </c>
       <c r="AE33">
-        <v>1089910000</v>
+        <v>68782000000</v>
       </c>
       <c r="AF33">
-        <v>1091968000</v>
+        <v>70644000000</v>
       </c>
       <c r="AG33">
-        <v>1092762000</v>
+        <v>71357000000</v>
       </c>
       <c r="AH33">
-        <v>945642000</v>
+        <v>48612000000</v>
       </c>
       <c r="AI33">
-        <v>950386900</v>
+        <v>37250000000</v>
       </c>
       <c r="AJ33">
-        <v>956561000</v>
+        <v>37391000000</v>
       </c>
       <c r="AK33">
-        <v>954331000</v>
+        <v>37081000000</v>
       </c>
       <c r="AL33">
-        <v>950171000</v>
+        <v>36481000000</v>
       </c>
       <c r="AM33">
-        <v>946596000</v>
+        <v>35481000000</v>
       </c>
       <c r="AN33">
-        <v>945004000</v>
+        <v>35841000000</v>
       </c>
       <c r="AO33">
-        <v>947485000</v>
+        <v>35564000000</v>
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>-8612000000</v>
+        <v>862342000</v>
       </c>
       <c r="C34">
-        <v>-3645000000</v>
+        <v>864639000</v>
       </c>
       <c r="D34">
-        <v>-3102000000</v>
+        <v>864256700</v>
       </c>
       <c r="E34">
-        <v>-3443000000</v>
+        <v>863773000</v>
       </c>
       <c r="F34">
-        <v>-3711000000</v>
+        <v>863842300</v>
       </c>
       <c r="G34">
-        <v>1464000000</v>
+        <v>865373700</v>
       </c>
       <c r="H34">
-        <v>-332000000</v>
+        <v>864882400</v>
       </c>
       <c r="I34">
-        <v>-1329000000</v>
+        <v>864394400</v>
       </c>
       <c r="J34">
-        <v>-5442000000</v>
+        <v>865604000</v>
       </c>
       <c r="K34">
-        <v>-949000000</v>
+        <v>865604000</v>
       </c>
       <c r="L34">
-        <v>-3808000000</v>
+        <v>870179000</v>
       </c>
       <c r="M34">
-        <v>-3383000000</v>
+        <v>880397200</v>
       </c>
       <c r="N34">
-        <v>-3543000000</v>
+        <v>888090000</v>
       </c>
       <c r="O34">
-        <v>-3284000000</v>
+        <v>895388000</v>
       </c>
       <c r="P34">
-        <v>-3271000000</v>
+        <v>903143000</v>
       </c>
       <c r="Q34">
-        <v>-3546000000</v>
+        <v>914176000</v>
       </c>
       <c r="R34">
-        <v>-2130000000</v>
+        <v>943445000</v>
       </c>
       <c r="S34">
-        <v>-2008000000</v>
+        <v>952133000</v>
       </c>
       <c r="T34">
-        <v>-730000000</v>
+        <v>992412000</v>
       </c>
       <c r="U34">
-        <v>-1059000000</v>
+        <v>991665600</v>
       </c>
       <c r="V34">
-        <v>237000000</v>
+        <v>990446000</v>
       </c>
       <c r="W34">
-        <v>2486000000</v>
+        <v>1023849000</v>
       </c>
       <c r="X34">
-        <v>5760000000</v>
+        <v>1070096000</v>
       </c>
       <c r="Y34">
-        <v>5557000000</v>
+        <v>1080695000</v>
       </c>
       <c r="Z34">
-        <v>4761000000</v>
+        <v>1079100000</v>
       </c>
       <c r="AA34">
-        <v>4452000000</v>
+        <v>1082987000</v>
       </c>
       <c r="AB34">
-        <v>3656000000</v>
+        <v>1081802000</v>
       </c>
       <c r="AC34">
-        <v>3000000000</v>
+        <v>1079660000</v>
       </c>
       <c r="AD34">
-        <v>2919000000</v>
+        <v>1085656000</v>
       </c>
       <c r="AE34">
-        <v>2577000000</v>
+        <v>1089910000</v>
       </c>
       <c r="AF34">
-        <v>3339000000</v>
+        <v>1091968000</v>
       </c>
       <c r="AG34">
-        <v>1757000000</v>
+        <v>1092762000</v>
       </c>
       <c r="AH34">
-        <v>18411000000</v>
+        <v>945642000</v>
       </c>
       <c r="AI34">
-        <v>17078000000</v>
+        <v>950386900</v>
       </c>
       <c r="AJ34">
-        <v>19120000000</v>
+        <v>956561000</v>
       </c>
       <c r="AK34">
-        <v>18378000000</v>
+        <v>954331000</v>
       </c>
       <c r="AL34">
-        <v>17565000000</v>
+        <v>950171000</v>
       </c>
       <c r="AM34">
-        <v>17044000000</v>
+        <v>946596000</v>
       </c>
       <c r="AN34">
-        <v>16580000000</v>
+        <v>945004000</v>
       </c>
       <c r="AO34">
-        <v>16586000000</v>
+        <v>947485000</v>
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>3557000000</v>
+        <v>-8612000000</v>
       </c>
       <c r="C35">
-        <v>11525000000</v>
+        <v>-3644000000</v>
       </c>
       <c r="D35">
-        <v>11306000000</v>
+        <v>-3102000000</v>
       </c>
       <c r="E35">
-        <v>13736000000</v>
+        <v>-3443000000</v>
       </c>
       <c r="F35">
-        <v>12014000000</v>
+        <v>-3711000000</v>
       </c>
       <c r="G35">
-        <v>10083000000</v>
+        <v>1464000000</v>
       </c>
       <c r="H35">
-        <v>16714000000</v>
+        <v>-332000000</v>
       </c>
       <c r="I35">
-        <v>17516000000</v>
+        <v>-1329000000</v>
       </c>
       <c r="J35">
-        <v>17574000000</v>
+        <v>-5442000000</v>
       </c>
       <c r="K35">
-        <v>17794000000</v>
+        <v>-949000000</v>
       </c>
       <c r="L35">
-        <v>18057000000</v>
+        <v>-3808000000</v>
       </c>
       <c r="M35">
-        <v>18141000000</v>
+        <v>-3383000000</v>
       </c>
       <c r="N35">
-        <v>12105000000</v>
+        <v>-3543000000</v>
       </c>
       <c r="O35">
-        <v>10075000000</v>
+        <v>-3284000000</v>
       </c>
       <c r="P35">
-        <v>11288000000</v>
+        <v>-3271000000</v>
       </c>
       <c r="Q35">
-        <v>11867000000</v>
+        <v>-3546000000</v>
       </c>
       <c r="R35">
-        <v>10666000000</v>
+        <v>-2130000000</v>
       </c>
       <c r="S35">
-        <v>11646000000</v>
+        <v>-2008000000</v>
       </c>
       <c r="T35">
-        <v>10638000000</v>
+        <v>-730000000</v>
       </c>
       <c r="U35">
-        <v>10783000000</v>
+        <v>-1059000000</v>
       </c>
       <c r="V35">
-        <v>10907000000</v>
+        <v>237000000</v>
       </c>
       <c r="W35">
-        <v>9383000000</v>
+        <v>2486000000</v>
       </c>
       <c r="X35">
-        <v>2119000000</v>
+        <v>5760000000</v>
       </c>
       <c r="Y35">
-        <v>5936000000</v>
+        <v>5557000000</v>
       </c>
       <c r="Z35">
-        <v>8179000000</v>
+        <v>4761000000</v>
       </c>
       <c r="AA35">
-        <v>8898000000</v>
+        <v>4452000000</v>
       </c>
       <c r="AB35">
-        <v>9860000000</v>
+        <v>3656000000</v>
       </c>
       <c r="AC35">
-        <v>9388000000</v>
+        <v>3000000000</v>
       </c>
       <c r="AD35">
-        <v>10624000000</v>
+        <v>2919000000</v>
       </c>
       <c r="AE35">
-        <v>10315000000</v>
+        <v>2577000000</v>
       </c>
       <c r="AF35">
-        <v>10606000000</v>
+        <v>3339000000</v>
       </c>
       <c r="AG35">
-        <v>12996000000</v>
+        <v>1757000000</v>
       </c>
       <c r="AH35">
-        <v>895000000</v>
+        <v>18411000000</v>
       </c>
       <c r="AI35">
-        <v>1070000000</v>
+        <v>17078000000</v>
       </c>
       <c r="AJ35">
-        <v>1621000000</v>
+        <v>19120000000</v>
       </c>
       <c r="AK35">
-        <v>2712000000</v>
+        <v>18378000000</v>
       </c>
       <c r="AL35">
-        <v>3532000000</v>
+        <v>17565000000</v>
       </c>
       <c r="AM35">
-        <v>2371000000</v>
+        <v>17044000000</v>
       </c>
       <c r="AN35">
-        <v>1507000000</v>
+        <v>16580000000</v>
       </c>
       <c r="AO35">
-        <v>2627000000</v>
+        <v>16586000000</v>
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>3557000000</v>
+      </c>
+      <c r="C36">
+        <v>11525000000</v>
+      </c>
+      <c r="D36">
+        <v>11306000000</v>
+      </c>
+      <c r="E36">
+        <v>13736000000</v>
+      </c>
+      <c r="F36">
+        <v>12014000000</v>
+      </c>
+      <c r="G36">
+        <v>10083000000</v>
+      </c>
+      <c r="H36">
+        <v>16714000000</v>
+      </c>
+      <c r="I36">
+        <v>17516000000</v>
+      </c>
+      <c r="J36">
+        <v>17574000000</v>
+      </c>
+      <c r="K36">
+        <v>17794000000</v>
+      </c>
+      <c r="L36">
+        <v>18057000000</v>
+      </c>
+      <c r="M36">
+        <v>18141000000</v>
+      </c>
+      <c r="N36">
+        <v>12105000000</v>
+      </c>
+      <c r="O36">
+        <v>10075000000</v>
+      </c>
+      <c r="P36">
+        <v>11288000000</v>
+      </c>
+      <c r="Q36">
+        <v>11867000000</v>
+      </c>
+      <c r="R36">
+        <v>10666000000</v>
+      </c>
+      <c r="S36">
+        <v>11646000000</v>
+      </c>
+      <c r="T36">
+        <v>10638000000</v>
+      </c>
+      <c r="U36">
+        <v>10783000000</v>
+      </c>
+      <c r="V36">
+        <v>10907000000</v>
+      </c>
+      <c r="W36">
+        <v>9383000000</v>
+      </c>
+      <c r="X36">
+        <v>2119000000</v>
+      </c>
+      <c r="Y36">
+        <v>5936000000</v>
+      </c>
+      <c r="Z36">
+        <v>8179000000</v>
+      </c>
+      <c r="AA36">
+        <v>8898000000</v>
+      </c>
+      <c r="AB36">
+        <v>9860000000</v>
+      </c>
+      <c r="AC36">
+        <v>9388000000</v>
+      </c>
+      <c r="AD36">
+        <v>10624000000</v>
+      </c>
+      <c r="AE36">
+        <v>10315000000</v>
+      </c>
+      <c r="AF36">
+        <v>10606000000</v>
+      </c>
+      <c r="AG36">
+        <v>12996000000</v>
+      </c>
+      <c r="AH36">
+        <v>895000000</v>
+      </c>
+      <c r="AI36">
+        <v>1070000000</v>
+      </c>
+      <c r="AJ36">
+        <v>1621000000</v>
+      </c>
+      <c r="AK36">
+        <v>2712000000</v>
+      </c>
+      <c r="AL36">
+        <v>3532000000</v>
+      </c>
+      <c r="AM36">
+        <v>2371000000</v>
+      </c>
+      <c r="AN36">
+        <v>1507000000</v>
+      </c>
+      <c r="AO36">
+        <v>2627000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37">
         <v>7789000000</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>13997000000</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>15764000000</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>15623000000</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>16149000000</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>11276000000</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>18059000000</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>18546000000</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>18685000000</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>18263000000</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>18825000000</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <v>18933000000</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <v>12916000000</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <v>11098000000</v>
       </c>
-      <c r="P36">
+      <c r="P37">
         <v>12127000000</v>
       </c>
-      <c r="Q36">
+      <c r="Q37">
         <v>12685000000</v>
       </c>
-      <c r="R36">
+      <c r="R37">
         <v>11646000000</v>
       </c>
-      <c r="S36">
+      <c r="S37">
         <v>12431000000</v>
       </c>
-      <c r="T36">
+      <c r="T37">
         <v>12456000000</v>
       </c>
-      <c r="U36">
+      <c r="U37">
         <v>12532000000</v>
       </c>
-      <c r="V36">
+      <c r="V37">
         <v>12737000000</v>
       </c>
-      <c r="W36">
+      <c r="W37">
         <v>12684000000</v>
       </c>
-      <c r="X36">
+      <c r="X37">
         <v>14372000000</v>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <v>17758000000</v>
       </c>
-      <c r="Z36">
+      <c r="Z37">
         <v>17777000000</v>
       </c>
-      <c r="AA36">
+      <c r="AA37">
         <v>18705000000</v>
       </c>
-      <c r="AB36">
+      <c r="AB37">
         <v>13151000000</v>
       </c>
-      <c r="AC36">
+      <c r="AC37">
         <v>12974000000</v>
       </c>
-      <c r="AD36">
+      <c r="AD37">
         <v>13194000000</v>
       </c>
-      <c r="AE36">
+      <c r="AE37">
         <v>13315000000</v>
       </c>
-      <c r="AF36">
+      <c r="AF37">
         <v>15055000000</v>
       </c>
-      <c r="AG36">
+      <c r="AG37">
         <v>16001000000</v>
       </c>
-      <c r="AH36">
+      <c r="AH37">
         <v>13756000000</v>
       </c>
-      <c r="AI36">
+      <c r="AI37">
         <v>3716000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AJ37">
         <v>3747000000</v>
       </c>
-      <c r="AK36">
+      <c r="AK37">
         <v>4489000000</v>
       </c>
-      <c r="AL36">
+      <c r="AL37">
         <v>4501000000</v>
       </c>
-      <c r="AM36">
+      <c r="AM37">
         <v>4477000000</v>
       </c>
-      <c r="AN36">
+      <c r="AN37">
         <v>4501000000</v>
       </c>
-      <c r="AO36">
+      <c r="AO37">
         <v>5058000000</v>
       </c>
     </row>
